--- a/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matiz de Pruebas SIEDNL - Ficha Técnica.xlsx
+++ b/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matiz de Pruebas SIEDNL - Ficha Técnica.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INAP-QA\Documents\GITHUB\All-documents-\SIEDNL (PDR)\ENTREGABLES\Matriz de Pruebas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inifap.gob.mx\Desktop\PROYECTO\AllDocuments\All-documents\SIEDNL (PDR)\ENTREGABLES\Matriz de Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="172">
   <si>
     <t xml:space="preserve">Tester: Iris Lechuga </t>
   </si>
@@ -229,9 +229,6 @@
     <t>Filtrado de columnas seleccionadas</t>
   </si>
   <si>
-    <t xml:space="preserve">Exporta e Imprime archivo correctamente </t>
-  </si>
-  <si>
     <t xml:space="preserve">Filtra paginas correctamente </t>
   </si>
   <si>
@@ -382,9 +379,6 @@
     <t>Autorizar MIR y el apartado de meta anual será habilitado</t>
   </si>
   <si>
-    <t xml:space="preserve">Carga Archivo Correctamente </t>
-  </si>
-  <si>
     <t xml:space="preserve">Captura de información </t>
   </si>
   <si>
@@ -439,9 +433,6 @@
     <t xml:space="preserve">Cerrar serión </t>
   </si>
   <si>
-    <t xml:space="preserve">Inicio / Configiraciones </t>
-  </si>
-  <si>
     <t xml:space="preserve">Muestra ventana principal de configuraciones </t>
   </si>
   <si>
@@ -463,9 +454,6 @@
     <t xml:space="preserve">Filtro Por Estado de la Meta Anual </t>
   </si>
   <si>
-    <t xml:space="preserve">Permitir visualizar, añadir y cancelar coemtarios </t>
-  </si>
-  <si>
     <t xml:space="preserve">Inicio / Meta Anual </t>
   </si>
   <si>
@@ -517,9 +505,6 @@
     <t>Guarda borrador en los listados de Ficha Técnica</t>
   </si>
   <si>
-    <t xml:space="preserve">Cancela la Ficha Técnoca </t>
-  </si>
-  <si>
     <t xml:space="preserve">Recauda toda la información de la Ficha Técnica </t>
   </si>
   <si>
@@ -542,6 +527,108 @@
   </si>
   <si>
     <t>ca</t>
+  </si>
+  <si>
+    <t>No se visualizan notificaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicio / Configuraciones </t>
+  </si>
+  <si>
+    <t>No exisste menu de configuración</t>
+  </si>
+  <si>
+    <t>Cierrra sesión</t>
+  </si>
+  <si>
+    <t>Icono deshabillitado</t>
+  </si>
+  <si>
+    <t>No  genera la busqueda corrrectamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir visualizar, añadir y cancelar cometarios </t>
+  </si>
+  <si>
+    <t>Permite visualizar, cancelar y añadir comentarios</t>
+  </si>
+  <si>
+    <t>Permite registrar ficha técnica</t>
+  </si>
+  <si>
+    <t>No genera la busqueda correctamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancela la Ficha Técnica </t>
+  </si>
+  <si>
+    <t>Realiizado</t>
+  </si>
+  <si>
+    <t>Esta inhabiliitado</t>
+  </si>
+  <si>
+    <t>Se pueden leer los comentarios enviados, añadir uno nuevo  y cancelar correctamente</t>
+  </si>
+  <si>
+    <t>Da acceso al llenado de información correctamente</t>
+  </si>
+  <si>
+    <t>Llenado correcto de la información</t>
+  </si>
+  <si>
+    <t>Cancela el registro</t>
+  </si>
+  <si>
+    <t>Manda mensaje de error en seccion de encabezado por estaar incompleto</t>
+  </si>
+  <si>
+    <t>Guarda borrador correctamente</t>
+  </si>
+  <si>
+    <t>Envia confirmación correcta para autorización</t>
+  </si>
+  <si>
+    <t>Cancela correctamente</t>
+  </si>
+  <si>
+    <t>Agrega correctamente comentario</t>
+  </si>
+  <si>
+    <t>Cancela correctamente comentario</t>
+  </si>
+  <si>
+    <t>Confirmación correcta enviada a autorización</t>
+  </si>
+  <si>
+    <t>Filtro inhabilitado</t>
+  </si>
+  <si>
+    <t>No genera Filtro busqueda correctamente</t>
+  </si>
+  <si>
+    <t>Permite leer, añadir nuevo comentario y cancelar correctamente</t>
+  </si>
+  <si>
+    <t>Descarga el archivo correctamente</t>
+  </si>
+  <si>
+    <t>Permite editar  el registro correctamente</t>
+  </si>
+  <si>
+    <t>Guarda como borrador correctamente</t>
+  </si>
+  <si>
+    <t>Autoriza correctamente</t>
+  </si>
+  <si>
+    <t>Agrega comentario correctamente</t>
+  </si>
+  <si>
+    <t>Cancela comentario correctamente</t>
+  </si>
+  <si>
+    <t>Confirmación correcta de autorización</t>
   </si>
 </sst>
 </file>
@@ -846,7 +933,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -895,6 +982,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -946,7 +1034,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% - Énfasis3" xfId="2" builtinId="40"/>
@@ -1074,6 +1164,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1099,7 +1190,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1153,7 +1244,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1217,7 +1308,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1288,7 +1379,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1359,7 +1450,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1430,7 +1521,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1603,7 +1694,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -1659,7 +1750,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -1715,7 +1806,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -1761,7 +1852,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1852,6 +1943,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1881,7 +1973,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1918,7 +2010,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1983,6 +2075,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2008,7 +2101,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2193,7 +2286,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="758273448"/>
@@ -2263,7 +2356,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="758273056"/>
@@ -2280,6 +2373,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2305,7 +2399,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2335,7 +2429,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2400,6 +2494,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2425,7 +2520,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3072,7 +3167,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="665099832"/>
@@ -3142,7 +3237,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="665099440"/>
@@ -3159,6 +3254,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3184,7 +3280,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3214,7 +3310,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9760,127 +9856,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:B49" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
@@ -10058,7 +10033,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
@@ -10110,6 +10085,127 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -10398,9 +10494,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:N283"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35:C37"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G263" sqref="G263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10422,94 +10518,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+    </row>
+    <row r="3" spans="1:14" s="20" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-    </row>
-    <row r="3" spans="1:14" s="20" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="28" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
     </row>
     <row r="4" spans="1:14" s="20" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
     </row>
     <row r="5" spans="1:14" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
     </row>
     <row r="6" spans="1:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
@@ -10555,51 +10651,51 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
         <v>71</v>
       </c>
-      <c r="E7" t="s">
-        <v>72</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" t="s">
         <v>71</v>
       </c>
-      <c r="E8" t="s">
-        <v>72</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
         <v>31</v>
@@ -10612,21 +10708,21 @@
       </c>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" t="s">
         <v>71</v>
-      </c>
-      <c r="E9" t="s">
-        <v>72</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>35</v>
@@ -10642,51 +10738,51 @@
       </c>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s">
         <v>71</v>
-      </c>
-      <c r="E10" t="s">
-        <v>72</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" t="s">
         <v>71</v>
-      </c>
-      <c r="E11" t="s">
-        <v>72</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>20</v>
@@ -10695,1059 +10791,1217 @@
         <v>31</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" t="s">
         <v>71</v>
       </c>
-      <c r="E12" t="s">
-        <v>72</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
       </c>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
         <v>71</v>
       </c>
-      <c r="E13" t="s">
-        <v>72</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
       </c>
+      <c r="H13" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="I13" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
         <v>71</v>
       </c>
-      <c r="E14" t="s">
-        <v>72</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G14" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
         <v>71</v>
       </c>
-      <c r="E15" t="s">
-        <v>72</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G15" t="s">
         <v>31</v>
       </c>
+      <c r="H15" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="I15" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
       </c>
+      <c r="H16" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="I16" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
         <v>71</v>
       </c>
-      <c r="E17" t="s">
-        <v>72</v>
-      </c>
       <c r="F17" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>33</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
         <v>71</v>
       </c>
-      <c r="E18" t="s">
-        <v>72</v>
-      </c>
       <c r="F18" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
         <v>71</v>
       </c>
-      <c r="E19" t="s">
-        <v>72</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" t="s">
         <v>71</v>
       </c>
-      <c r="E20" t="s">
-        <v>72</v>
-      </c>
       <c r="F20" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>138</v>
+        <v>31</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>133</v>
       </c>
       <c r="J20" s="3"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="D21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="I21" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" t="s">
         <v>71</v>
       </c>
-      <c r="E22" t="s">
-        <v>72</v>
-      </c>
       <c r="F22" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>18</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" t="s">
         <v>71</v>
       </c>
-      <c r="E23" t="s">
-        <v>72</v>
-      </c>
       <c r="F23" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" t="s">
         <v>71</v>
       </c>
-      <c r="E24" t="s">
-        <v>72</v>
-      </c>
       <c r="F24" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" t="s">
         <v>71</v>
       </c>
-      <c r="E25" t="s">
-        <v>72</v>
-      </c>
       <c r="F25" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
       <c r="I26" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D27" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" t="s">
-        <v>72</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
       </c>
+      <c r="H27" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="I27" s="3" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>23</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" t="s">
         <v>71</v>
       </c>
-      <c r="E28" t="s">
-        <v>72</v>
-      </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="I28" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>24</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" t="s">
         <v>71</v>
       </c>
-      <c r="E29" t="s">
-        <v>72</v>
-      </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" t="s">
         <v>71</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>72</v>
       </c>
-      <c r="F30" t="s">
-        <v>73</v>
-      </c>
       <c r="G30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30"/>
+        <v>149</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="I30" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J30"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>26</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" t="s">
         <v>71</v>
       </c>
-      <c r="E31" t="s">
-        <v>72</v>
-      </c>
       <c r="F31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G31" t="s">
         <v>31</v>
       </c>
       <c r="H31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J31"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" t="s">
         <v>71</v>
       </c>
-      <c r="E32" t="s">
-        <v>72</v>
-      </c>
       <c r="F32" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G32" t="s">
         <v>31</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>28</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" t="s">
         <v>71</v>
       </c>
-      <c r="E33" t="s">
-        <v>72</v>
-      </c>
       <c r="F33" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s">
         <v>31</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="M33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>29</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" t="s">
         <v>77</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>79</v>
+      <c r="G34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>30</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>139</v>
+        <v>111</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>134</v>
       </c>
       <c r="D35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" t="s">
         <v>77</v>
       </c>
-      <c r="E35" t="s">
-        <v>78</v>
-      </c>
       <c r="F35" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
+      </c>
+      <c r="G35" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>31</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>139</v>
+        <v>111</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>134</v>
       </c>
       <c r="D36" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" t="s">
         <v>77</v>
       </c>
-      <c r="E36" t="s">
-        <v>78</v>
-      </c>
       <c r="F36" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="G36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>32</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" s="41" t="s">
-        <v>139</v>
+        <v>111</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>134</v>
       </c>
       <c r="D37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" t="s">
         <v>77</v>
       </c>
-      <c r="E37" t="s">
-        <v>78</v>
-      </c>
       <c r="F37" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
+      </c>
+      <c r="G37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>33</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" t="s">
         <v>77</v>
       </c>
-      <c r="E38" t="s">
-        <v>78</v>
-      </c>
       <c r="F38" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
+      </c>
+      <c r="G38" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" t="s">
         <v>77</v>
       </c>
-      <c r="E39" t="s">
-        <v>78</v>
-      </c>
       <c r="F39" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D40" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" t="s">
         <v>77</v>
       </c>
-      <c r="E40" t="s">
-        <v>78</v>
-      </c>
       <c r="F40" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="G40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="42" t="s">
+        <v>153</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>37</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" t="s">
         <v>77</v>
       </c>
-      <c r="E41" t="s">
-        <v>78</v>
-      </c>
       <c r="F41" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="G41" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="42" t="s">
+        <v>153</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>38</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" t="s">
         <v>77</v>
       </c>
-      <c r="E42" t="s">
-        <v>78</v>
-      </c>
       <c r="F42" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="G42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="42" t="s">
+        <v>153</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>39</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D43" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" t="s">
         <v>77</v>
       </c>
-      <c r="E43" t="s">
-        <v>78</v>
-      </c>
       <c r="F43" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="G43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" s="42" t="s">
+        <v>153</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>40</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" t="s">
         <v>77</v>
       </c>
-      <c r="E44" t="s">
-        <v>78</v>
-      </c>
       <c r="F44" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="G44" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" s="42" t="s">
+        <v>153</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>41</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D45" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" t="s">
         <v>77</v>
       </c>
-      <c r="E45" t="s">
-        <v>78</v>
-      </c>
       <c r="F45" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="G45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="42" t="s">
+        <v>154</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>42</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D46" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" t="s">
         <v>77</v>
       </c>
-      <c r="E46" t="s">
-        <v>78</v>
-      </c>
       <c r="F46" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="G46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" s="42" t="s">
+        <v>155</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>43</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D47" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" t="s">
         <v>77</v>
       </c>
-      <c r="E47" t="s">
-        <v>78</v>
-      </c>
       <c r="F47" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="G47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="42" t="s">
+        <v>156</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>44</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D48" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" t="s">
         <v>77</v>
       </c>
-      <c r="E48" t="s">
-        <v>78</v>
-      </c>
       <c r="F48" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="G48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>45</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" t="s">
         <v>77</v>
       </c>
-      <c r="E49" t="s">
-        <v>78</v>
-      </c>
       <c r="F49" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="G49" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>46</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D50" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" t="s">
         <v>77</v>
       </c>
-      <c r="E50" t="s">
-        <v>78</v>
-      </c>
       <c r="F50" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="G50" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>47</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D51" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51" t="s">
         <v>77</v>
       </c>
-      <c r="E51" t="s">
-        <v>78</v>
-      </c>
       <c r="F51" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="G51" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>48</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" t="s">
+        <v>77</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G52" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I52" s="23" t="s">
         <v>114</v>
-      </c>
-      <c r="C52" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" t="s">
-        <v>77</v>
-      </c>
-      <c r="E52" t="s">
-        <v>78</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I52" s="23" t="s">
-        <v>118</v>
       </c>
       <c r="N52" s="1"/>
     </row>
@@ -11756,22 +12010,28 @@
         <v>49</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C53" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" t="s">
         <v>85</v>
       </c>
-      <c r="E53" t="s">
-        <v>86</v>
-      </c>
       <c r="F53" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="G53" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N53" s="1"/>
     </row>
@@ -11780,19 +12040,25 @@
         <v>50</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C54" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D54" t="s">
+        <v>84</v>
+      </c>
+      <c r="E54" t="s">
         <v>85</v>
       </c>
-      <c r="E54" t="s">
-        <v>86</v>
-      </c>
       <c r="F54" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="G54" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>22</v>
@@ -11804,19 +12070,25 @@
         <v>51</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D55" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" t="s">
         <v>85</v>
       </c>
-      <c r="E55" t="s">
-        <v>86</v>
-      </c>
       <c r="F55" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="G55" t="s">
+        <v>33</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>22</v>
@@ -11828,22 +12100,28 @@
         <v>52</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D56" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" t="s">
         <v>85</v>
       </c>
-      <c r="E56" t="s">
-        <v>86</v>
-      </c>
       <c r="F56" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+      <c r="G56" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N56" s="1"/>
     </row>
@@ -11852,22 +12130,28 @@
         <v>53</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D57" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" t="s">
         <v>85</v>
       </c>
-      <c r="E57" t="s">
-        <v>86</v>
-      </c>
       <c r="F57" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="G57" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57" s="42" t="s">
+        <v>164</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N57" s="1"/>
     </row>
@@ -11876,22 +12160,28 @@
         <v>54</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C58" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" t="s">
+        <v>85</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D58" t="s">
-        <v>85</v>
-      </c>
-      <c r="E58" t="s">
-        <v>86</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>121</v>
+      <c r="G58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="N58" s="1"/>
     </row>
@@ -11900,22 +12190,28 @@
         <v>55</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C59" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D59" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" t="s">
         <v>85</v>
       </c>
-      <c r="E59" t="s">
-        <v>86</v>
-      </c>
       <c r="F59" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="G59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" s="42" t="s">
+        <v>166</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N59" s="1"/>
     </row>
@@ -11924,22 +12220,28 @@
         <v>57</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" t="s">
         <v>85</v>
       </c>
-      <c r="E60" t="s">
-        <v>86</v>
-      </c>
       <c r="F60" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="G60" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" s="42" t="s">
+        <v>153</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N60" s="1"/>
     </row>
@@ -11948,22 +12250,28 @@
         <v>58</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D61" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" t="s">
         <v>85</v>
       </c>
-      <c r="E61" t="s">
-        <v>86</v>
-      </c>
       <c r="F61" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="G61" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" s="42" t="s">
+        <v>153</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N61" s="1"/>
     </row>
@@ -11972,22 +12280,28 @@
         <v>59</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D62" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" t="s">
         <v>85</v>
       </c>
-      <c r="E62" t="s">
-        <v>86</v>
-      </c>
       <c r="F62" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="G62" t="s">
+        <v>31</v>
+      </c>
+      <c r="H62" s="42" t="s">
+        <v>153</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N62" s="1"/>
     </row>
@@ -11996,22 +12310,28 @@
         <v>60</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D63" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" t="s">
         <v>85</v>
       </c>
-      <c r="E63" t="s">
-        <v>86</v>
-      </c>
       <c r="F63" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="G63" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" s="42" t="s">
+        <v>153</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N63" s="1"/>
     </row>
@@ -12020,22 +12340,28 @@
         <v>61</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D64" t="s">
+        <v>84</v>
+      </c>
+      <c r="E64" t="s">
         <v>85</v>
       </c>
-      <c r="E64" t="s">
-        <v>86</v>
-      </c>
       <c r="F64" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="G64" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" s="42" t="s">
+        <v>153</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N64" s="1"/>
     </row>
@@ -12044,55 +12370,67 @@
         <v>62</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" t="s">
+        <v>84</v>
+      </c>
+      <c r="E65" t="s">
+        <v>85</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D65" t="s">
-        <v>85</v>
-      </c>
-      <c r="E65" t="s">
-        <v>86</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>65</v>
+      <c r="G65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>63</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D66" t="s">
+        <v>84</v>
+      </c>
+      <c r="E66" t="s">
         <v>85</v>
       </c>
-      <c r="E66" t="s">
-        <v>86</v>
-      </c>
       <c r="F66" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="G66" t="s">
+        <v>31</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F67" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N67" s="1"/>
     </row>
@@ -12101,22 +12439,28 @@
         <v>64</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D68" t="s">
+        <v>84</v>
+      </c>
+      <c r="E68" t="s">
         <v>85</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="G68" t="s">
+        <v>31</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I68" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="N68" s="1"/>
     </row>
@@ -12125,22 +12469,28 @@
         <v>65</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D69" t="s">
+        <v>84</v>
+      </c>
+      <c r="E69" t="s">
         <v>85</v>
       </c>
-      <c r="E69" t="s">
-        <v>86</v>
-      </c>
       <c r="F69" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="G69" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N69" s="1"/>
     </row>
@@ -12149,22 +12499,28 @@
         <v>66</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D70" t="s">
+        <v>84</v>
+      </c>
+      <c r="E70" t="s">
         <v>85</v>
       </c>
-      <c r="E70" t="s">
-        <v>86</v>
-      </c>
       <c r="F70" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="G70" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N70" s="1"/>
     </row>
@@ -12173,22 +12529,28 @@
         <v>67</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C71" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D71" t="s">
+        <v>84</v>
+      </c>
+      <c r="E71" t="s">
         <v>85</v>
       </c>
-      <c r="E71" t="s">
-        <v>86</v>
-      </c>
       <c r="F71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="G71" t="s">
+        <v>31</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N71" s="1"/>
     </row>
@@ -12197,621 +12559,630 @@
         <v>68</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D72" t="s">
+        <v>84</v>
+      </c>
+      <c r="E72" t="s">
         <v>85</v>
       </c>
-      <c r="E72" t="s">
-        <v>86</v>
-      </c>
       <c r="F72" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="G72" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" s="42" t="s">
+        <v>171</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N125" s="1"/>
     </row>
-    <row r="126" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N127" s="1"/>
     </row>
-    <row r="128" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N134" s="1"/>
     </row>
-    <row r="135" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N135" s="1"/>
     </row>
-    <row r="136" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N137" s="1"/>
     </row>
-    <row r="138" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N138" s="1"/>
     </row>
-    <row r="139" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N139" s="1"/>
     </row>
-    <row r="140" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N143" s="1"/>
     </row>
-    <row r="144" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N145" s="1"/>
     </row>
-    <row r="146" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N146" s="1"/>
     </row>
-    <row r="147" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N147" s="1"/>
     </row>
-    <row r="148" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N148" s="1"/>
     </row>
-    <row r="149" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N149" s="1"/>
     </row>
-    <row r="150" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N150" s="1"/>
     </row>
-    <row r="151" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N155" s="1"/>
     </row>
-    <row r="156" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N156" s="1"/>
     </row>
-    <row r="157" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N157" s="1"/>
     </row>
-    <row r="158" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N158" s="1"/>
     </row>
-    <row r="159" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N159" s="1"/>
     </row>
-    <row r="160" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J160" s="6"/>
       <c r="N160" s="1"/>
     </row>
-    <row r="161" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N161" s="1"/>
     </row>
-    <row r="162" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N163" s="1"/>
     </row>
-    <row r="164" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N164" s="1"/>
     </row>
-    <row r="165" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N165" s="1"/>
     </row>
-    <row r="166" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N166" s="1"/>
     </row>
-    <row r="167" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N167" s="1"/>
     </row>
-    <row r="168" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N169" s="1"/>
     </row>
-    <row r="170" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N170" s="1"/>
     </row>
-    <row r="171" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N171" s="1"/>
     </row>
-    <row r="172" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N172" s="1"/>
     </row>
-    <row r="173" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N173" s="1"/>
     </row>
-    <row r="174" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N174" s="1"/>
     </row>
-    <row r="175" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N175" s="1"/>
     </row>
-    <row r="176" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N176" s="1"/>
     </row>
-    <row r="177" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="177" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N177" s="1"/>
     </row>
-    <row r="178" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="178" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N178" s="1"/>
     </row>
-    <row r="179" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="179" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N179" s="1"/>
     </row>
-    <row r="180" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="180" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J180" s="6"/>
       <c r="N180" s="1"/>
     </row>
-    <row r="181" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="181" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J181" s="6"/>
       <c r="N181" s="1"/>
     </row>
-    <row r="182" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="182" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J182" s="6"/>
       <c r="N182" s="1"/>
     </row>
-    <row r="183" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="183" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J183" s="6"/>
       <c r="N183" s="1"/>
     </row>
-    <row r="184" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="184" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J184" s="6"/>
       <c r="N184" s="1"/>
     </row>
-    <row r="185" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="185" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J185" s="7"/>
       <c r="N185" s="1"/>
     </row>
-    <row r="186" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="186" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J186" s="7"/>
       <c r="N186" s="1"/>
     </row>
-    <row r="187" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="187" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J187" s="7"/>
       <c r="N187" s="1"/>
     </row>
-    <row r="188" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="188" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J188" s="7"/>
       <c r="N188" s="1"/>
     </row>
-    <row r="189" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="189" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J189" s="7"/>
       <c r="N189" s="1"/>
     </row>
-    <row r="190" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="190" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J190" s="7"/>
       <c r="N190" s="1"/>
     </row>
-    <row r="191" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="191" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J191" s="7"/>
       <c r="N191" s="1"/>
     </row>
-    <row r="192" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="192" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J192" s="7"/>
       <c r="N192" s="1"/>
     </row>
-    <row r="193" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="193" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J193" s="7"/>
       <c r="N193" s="1"/>
     </row>
-    <row r="194" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="194" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J194" s="7"/>
       <c r="N194" s="1"/>
     </row>
-    <row r="195" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="195" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N195" s="1"/>
     </row>
-    <row r="196" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="196" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N196" s="1"/>
     </row>
-    <row r="197" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="197" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N197" s="1"/>
     </row>
-    <row r="198" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="198" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N198" s="1"/>
     </row>
-    <row r="199" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="199" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N199" s="1"/>
     </row>
-    <row r="200" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="200" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N200" s="1"/>
     </row>
-    <row r="201" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="201" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N201" s="1"/>
     </row>
-    <row r="202" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="202" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N202" s="1"/>
     </row>
-    <row r="203" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="203" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N203" s="1"/>
     </row>
-    <row r="204" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="204" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N204" s="1"/>
     </row>
-    <row r="205" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="205" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N205" s="1"/>
     </row>
-    <row r="206" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="206" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N206" s="1"/>
     </row>
-    <row r="207" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="207" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N207" s="1"/>
     </row>
-    <row r="208" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="208" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N208" s="1"/>
     </row>
-    <row r="209" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="209" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N209" s="1"/>
     </row>
-    <row r="210" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="210" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N210" s="1"/>
     </row>
-    <row r="211" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="211" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N211" s="1"/>
     </row>
-    <row r="212" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="212" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N212" s="1"/>
     </row>
-    <row r="213" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="213" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N213" s="1"/>
     </row>
-    <row r="214" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="214" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N214" s="1"/>
     </row>
-    <row r="215" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="215" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N215" s="1"/>
     </row>
-    <row r="216" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="216" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N216" s="1"/>
     </row>
-    <row r="217" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="217" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N217" s="1"/>
     </row>
-    <row r="218" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="218" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N218" s="1"/>
     </row>
-    <row r="219" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="219" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J219" s="7"/>
       <c r="N219" s="1"/>
     </row>
-    <row r="220" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="220" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J220" s="7"/>
       <c r="N220" s="1"/>
     </row>
-    <row r="221" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="221" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J221" s="7"/>
       <c r="N221" s="1"/>
     </row>
-    <row r="222" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="222" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J222" s="7"/>
       <c r="N222" s="1"/>
     </row>
-    <row r="223" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="223" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J223" s="7"/>
       <c r="N223" s="1"/>
     </row>
-    <row r="224" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="224" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J224" s="7"/>
       <c r="N224" s="1"/>
     </row>
-    <row r="225" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="225" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J225" s="7"/>
       <c r="N225" s="1"/>
     </row>
-    <row r="226" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="226" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J226" s="7"/>
       <c r="N226" s="1"/>
     </row>
-    <row r="227" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="227" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J227" s="7"/>
       <c r="N227" s="1"/>
     </row>
-    <row r="228" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="228" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J228" s="7"/>
       <c r="N228" s="1"/>
     </row>
-    <row r="229" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="229" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J229" s="7"/>
       <c r="N229" s="1"/>
     </row>
-    <row r="230" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="230" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J230" s="7"/>
       <c r="N230" s="1"/>
     </row>
-    <row r="231" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="231" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J231" s="7"/>
       <c r="N231" s="1"/>
     </row>
-    <row r="232" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="232" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J232" s="6"/>
       <c r="N232" s="1"/>
     </row>
-    <row r="233" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="233" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J233" s="7"/>
       <c r="N233" s="1"/>
     </row>
-    <row r="234" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="234" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J234" s="7"/>
       <c r="N234" s="1"/>
     </row>
-    <row r="235" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="235" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J235" s="7"/>
       <c r="N235" s="1"/>
     </row>
-    <row r="236" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="236" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J236" s="7"/>
       <c r="N236" s="1"/>
     </row>
-    <row r="237" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="237" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J237" s="7"/>
       <c r="N237" s="1"/>
     </row>
-    <row r="238" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="238" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J238" s="7"/>
       <c r="N238" s="1"/>
     </row>
-    <row r="239" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="239" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J239" s="7"/>
       <c r="N239" s="1"/>
     </row>
-    <row r="240" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="240" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J240" s="7"/>
       <c r="N240" s="1"/>
     </row>
-    <row r="241" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="241" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J241" s="7"/>
       <c r="N241" s="1"/>
     </row>
-    <row r="242" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="242" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J242" s="7"/>
       <c r="N242" s="1"/>
     </row>
-    <row r="243" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="243" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J243" s="7"/>
       <c r="N243" s="1"/>
     </row>
-    <row r="244" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="244" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N244" s="1"/>
     </row>
-    <row r="245" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="245" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N245" s="1"/>
     </row>
-    <row r="246" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="246" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N246" s="1"/>
     </row>
-    <row r="247" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="247" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N247" s="1"/>
     </row>
-    <row r="248" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="248" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N248" s="1"/>
     </row>
-    <row r="249" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="249" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N249" s="1"/>
     </row>
-    <row r="250" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="250" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N250" s="1"/>
     </row>
-    <row r="251" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="251" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N251" s="1"/>
     </row>
-    <row r="252" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="252" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N252" s="1"/>
     </row>
-    <row r="253" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="253" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N253" s="1"/>
     </row>
-    <row r="254" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="254" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N254" s="1"/>
     </row>
-    <row r="255" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="255" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N255" s="1"/>
     </row>
-    <row r="256" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="256" spans="10:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N256" s="1"/>
     </row>
-    <row r="257" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="257" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N257" s="1"/>
     </row>
+    <row r="258" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" spans="14:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="261" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N261" s="1"/>
     </row>
@@ -13059,7 +13430,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
@@ -13070,7 +13441,7 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
         <v>32</v>
@@ -13081,7 +13452,7 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
@@ -13089,7 +13460,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matiz de Pruebas SIEDNL - Ficha Técnica.xlsx
+++ b/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matiz de Pruebas SIEDNL - Ficha Técnica.xlsx
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="174">
   <si>
     <t xml:space="preserve">Tester: Iris Lechuga </t>
   </si>
@@ -632,6 +632,9 @@
   </si>
   <si>
     <t>Marlon Israel Mendez</t>
+  </si>
+  <si>
+    <t>https://siednl.atlassian.net/browse/PBR-46</t>
   </si>
 </sst>
 </file>
@@ -1003,6 +1006,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1052,9 +1058,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9872,128 +9875,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:B49" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
@@ -10171,7 +10052,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
@@ -10223,6 +10104,128 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -10511,9 +10514,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:N283"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10535,94 +10538,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="1:14" s="20" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="31" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
     </row>
     <row r="4" spans="1:14" s="20" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
     </row>
     <row r="5" spans="1:14" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="39" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
     </row>
     <row r="6" spans="1:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
@@ -10957,6 +10960,9 @@
       <c r="J16" s="26" t="s">
         <v>171</v>
       </c>
+      <c r="M16" t="s">
+        <v>173</v>
+      </c>
       <c r="N16" s="1">
         <v>45097</v>
       </c>
@@ -10992,6 +10998,9 @@
       <c r="J17" s="26" t="s">
         <v>171</v>
       </c>
+      <c r="M17" t="s">
+        <v>173</v>
+      </c>
       <c r="N17" s="1">
         <v>45097</v>
       </c>
@@ -11027,6 +11036,9 @@
       <c r="J18" s="26" t="s">
         <v>171</v>
       </c>
+      <c r="M18" t="s">
+        <v>173</v>
+      </c>
       <c r="N18" s="1">
         <v>45097</v>
       </c>
@@ -11509,8 +11521,11 @@
       <c r="I34" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J34" s="44" t="s">
+      <c r="J34" s="27" t="s">
         <v>171</v>
+      </c>
+      <c r="M34" t="s">
+        <v>173</v>
       </c>
       <c r="N34" s="1">
         <v>45097</v>
@@ -11544,8 +11559,11 @@
       <c r="I35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="44" t="s">
+      <c r="J35" s="27" t="s">
         <v>171</v>
+      </c>
+      <c r="M35" t="s">
+        <v>173</v>
       </c>
       <c r="N35" s="1">
         <v>45097</v>
@@ -11579,8 +11597,11 @@
       <c r="I36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J36" s="44" t="s">
+      <c r="J36" s="27" t="s">
         <v>171</v>
+      </c>
+      <c r="M36" t="s">
+        <v>173</v>
       </c>
       <c r="N36" s="1">
         <v>45097</v>
@@ -11869,8 +11890,11 @@
       <c r="I46" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J46" s="44" t="s">
+      <c r="J46" s="27" t="s">
         <v>171</v>
+      </c>
+      <c r="M46" t="s">
+        <v>173</v>
       </c>
       <c r="N46" s="1">
         <v>45097</v>
@@ -12082,8 +12106,11 @@
       <c r="I53" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J53" s="44" t="s">
+      <c r="J53" s="27" t="s">
         <v>171</v>
+      </c>
+      <c r="M53" t="s">
+        <v>173</v>
       </c>
       <c r="N53" s="1">
         <v>45097</v>
@@ -12117,8 +12144,11 @@
       <c r="I54" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J54" s="44" t="s">
+      <c r="J54" s="27" t="s">
         <v>171</v>
+      </c>
+      <c r="M54" t="s">
+        <v>173</v>
       </c>
       <c r="N54" s="1">
         <v>45097</v>
@@ -12152,8 +12182,11 @@
       <c r="I55" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J55" s="44" t="s">
+      <c r="J55" s="27" t="s">
         <v>171</v>
+      </c>
+      <c r="M55" t="s">
+        <v>173</v>
       </c>
       <c r="N55" s="1">
         <v>45097</v>
